--- a/reeevr/test/excelunit/string-tests.xlsx
+++ b/reeevr/test/excelunit/string-tests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mo14776\PycharmProjects\Excel-R-compiler\reeevr\test\excelunit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17B033CD-ADBB-406D-8405-39DA6A6F3536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0F2C762-52C7-4D5A-BF3C-38160F6A04CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51741016-DE60-49DF-9826-25EB96E04CFB}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -539,7 +540,7 @@
   <dimension ref="B2:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
